--- a/src/test/resources/data/Datos.xlsx
+++ b/src/test/resources/data/Datos.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IRIVER1\IdeaProjects\automatizacion-front-kata\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5225BF24-1685-4E67-B97F-CC7D80B689B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCB9BEF-AD9A-4023-9460-8C1D3057471E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="4140" windowWidth="13605" windowHeight="6000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>UserName</t>
   </si>
@@ -65,6 +65,21 @@
   </si>
   <si>
     <t>1LORENA1234</t>
+  </si>
+  <si>
+    <t>User Role</t>
+  </si>
+  <si>
+    <t>Admi</t>
+  </si>
+  <si>
+    <t>ESS</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Disabled</t>
   </si>
 </sst>
 </file>
@@ -109,12 +124,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -575,59 +593,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295788B1-06CB-4B6F-BD7A-3A329791D218}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="2" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
     </row>
